--- a/data/trans_dic/P38B-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Provincia-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_dic/P38B-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,56%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,81%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,56%</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>64,4; 76,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>93,29; 98,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>69,34; 79,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>96,41; 99,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>68,78; 76,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>95,92; 98,78</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,79%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>84,01; 89,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>85,33; 90,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>71,02; 82,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>91,06; 95,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>92,71; 96,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>80,06; 87,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>88,22; 91,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>89,91; 93,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>77,4; 83,89</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,37%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,49%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,57%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,92%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,5%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>80,26; 87,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>85,44; 92,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>89,41; 96,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>83,91; 91,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>89,15; 94,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>94,64; 98,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>83,77; 89,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>88,83; 93,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>93,41; 97,15</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,63%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>76,53; 83,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>88,13; 94,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>81,08; 93,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>84,1; 89,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>88,29; 94,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>78,14; 94,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>81,61; 85,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>89,26; 93,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>83,2; 92,69</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,72%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,59%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,8%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,98%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,53%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,6%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,92%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,16%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,94%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>77,73; 88,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>71,46; 83,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>75,87; 86,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>88,61; 95,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>84,29; 92,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>82,67; 91,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>84,19; 91,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>79,23; 86,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>81,18; 88,18</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,73%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,7%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>83,64; 91,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>74,71; 84,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>92,38; 97,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>83,83; 91,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>82,72; 90,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>94,25; 98,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>85,14; 91,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>80,37; 86,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>94,73; 98,15</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,79%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,04%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,71%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,32%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,6%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,14%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,93%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,6%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>82,75; 88,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>62,11; 69,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>79,68; 87,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>90,01; 94,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>69,67; 76,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>89,9; 95,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>87,36; 90,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>67,11; 72,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>86,13; 91,63</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,3%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,24%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,47%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,36%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,5%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,9%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,54%</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>71,01; 77,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>86,81; 91,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>44,91; 62,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>76,35; 82,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>92,8; 95,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>66,12; 72,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>74,66; 79,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>90,62; 93,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>57,81; 66,86</t>
         </is>
       </c>
     </row>
@@ -1512,47 +1512,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,13%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,88%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,37%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,79%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,41%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,71%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,02%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,71%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,25%</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>80,77; 83,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>80,48; 83,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>75,14; 81,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>86,55; 88,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>86,23; 88,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>85,02; 88,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>84,18; 85,79</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>83,79; 85,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>81,11; 84,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P38B-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Provincia-trans_dic.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>96,47%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,69%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>98,41%</t>
+          <t>98,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>97,39%</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>79,32; 88,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>93,29; 98,59</t>
+          <t>92,86; 98,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>85,65; 92,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,41; 99,36</t>
+          <t>96,14; 99,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>83,73; 89,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>95,92; 98,78</t>
+          <t>95,53; 98,66</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76,94%</t>
+          <t>75,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>84,4%</t>
+          <t>84,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>80,79%</t>
+          <t>79,89%</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>71,02; 82,11</t>
+          <t>69,05; 81,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>80,06; 87,57</t>
+          <t>80,09; 87,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>77,4; 83,89</t>
+          <t>76,29; 83,24</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>97,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>95,32%</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,41; 96,4</t>
+          <t>88,97; 96,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>94,64; 98,75</t>
+          <t>94,57; 98,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>93,41; 97,15</t>
+          <t>93,02; 97,03</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>80,05%</t>
+          <t>76,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -972,12 +972,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>89,24%</t>
+          <t>88,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>86,98%</t>
+          <t>84,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -987,12 +987,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>89,92%</t>
+          <t>79,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>83,55%</t>
+          <t>81,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>89,63%</t>
+          <t>83,28%</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>76,53; 83,25</t>
+          <t>72,33; 81,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1025,12 +1025,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>81,08; 93,49</t>
+          <t>79,43; 93,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,1; 89,39</t>
+          <t>81,35; 88,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1040,12 +1040,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,14; 94,16</t>
+          <t>48,53; 94,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>81,61; 85,46</t>
+          <t>77,87; 83,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>83,2; 92,69</t>
+          <t>60,61; 92,18</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>81,8%</t>
+          <t>81,91%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>87,6%</t>
+          <t>88,19%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>84,94%</t>
+          <t>85,29%</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>75,87; 86,83</t>
+          <t>76,15; 86,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>82,67; 91,37</t>
+          <t>83,77; 91,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>81,18; 88,18</t>
+          <t>81,6; 88,39</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>95,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>96,6%</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,38; 97,98</t>
+          <t>92,16; 97,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>94,25; 98,91</t>
+          <t>94,27; 98,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>94,73; 98,15</t>
+          <t>94,5; 98,14</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>83,71%</t>
+          <t>82,37%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>92,41%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>88,6%</t>
+          <t>88,66%</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>79,68; 87,17</t>
+          <t>77,5; 86,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>89,9; 95,25</t>
+          <t>90,3; 96,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>86,13; 91,63</t>
+          <t>85,59; 92,82</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>57,47%</t>
+          <t>45,31%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>69,55%</t>
+          <t>70,47%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>63,54%</t>
+          <t>56,27%</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>44,91; 62,37</t>
+          <t>21,38; 62,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>66,12; 72,75</t>
+          <t>67,14; 73,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>57,81; 66,86</t>
+          <t>35,99; 67,19</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>79,37%</t>
+          <t>75,22%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>86,71%</t>
+          <t>86,59%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>83,25%</t>
+          <t>81,07%</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>75,14; 81,41</t>
+          <t>59,33; 81,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>85,02; 88,22</t>
+          <t>80,26; 88,96</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>81,11; 84,59</t>
+          <t>72,12; 84,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P38B-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>79,32; 88,01</t>
+          <t>79,24; 87,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>64,4; 76,04</t>
+          <t>64,73; 75,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,86; 98,52</t>
+          <t>93,09; 98,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85,65; 92,89</t>
+          <t>85,35; 93,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>69,34; 79,89</t>
+          <t>69,74; 80,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,14; 99,34</t>
+          <t>96,21; 99,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>83,73; 89,56</t>
+          <t>83,46; 89,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>68,78; 76,27</t>
+          <t>69,06; 76,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>95,53; 98,66</t>
+          <t>95,5; 98,66</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,01; 89,72</t>
+          <t>84,01; 89,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,33; 90,99</t>
+          <t>85,13; 91,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,05; 81,03</t>
+          <t>69,4; 80,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>91,06; 95,63</t>
+          <t>91,04; 95,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,71; 96,62</t>
+          <t>92,52; 96,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>80,09; 87,49</t>
+          <t>80,33; 87,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>88,22; 91,88</t>
+          <t>88,2; 91,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>89,91; 93,42</t>
+          <t>89,76; 93,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>76,29; 83,24</t>
+          <t>75,73; 83,2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,26; 87,77</t>
+          <t>80,19; 88,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,44; 92,21</t>
+          <t>86,15; 92,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,97; 96,32</t>
+          <t>89,11; 96,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>83,91; 91,62</t>
+          <t>84,82; 91,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>89,15; 94,87</t>
+          <t>89,33; 95,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>94,57; 98,73</t>
+          <t>94,55; 98,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>83,77; 89,19</t>
+          <t>83,23; 88,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>88,83; 93,05</t>
+          <t>88,48; 92,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>93,02; 97,03</t>
+          <t>93,04; 96,81</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>72,33; 81,44</t>
+          <t>72,22; 81,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,13; 94,01</t>
+          <t>88,25; 94,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>79,43; 93,51</t>
+          <t>79,12; 93,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>81,35; 88,3</t>
+          <t>81,54; 88,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,29; 94,07</t>
+          <t>87,71; 94,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,53; 94,52</t>
+          <t>48,13; 94,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>77,87; 83,92</t>
+          <t>77,91; 83,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>89,26; 93,35</t>
+          <t>89,4; 93,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60,61; 92,18</t>
+          <t>59,03; 92,3</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,73; 88,57</t>
+          <t>77,5; 88,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>71,46; 83,01</t>
+          <t>71,41; 82,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,15; 86,85</t>
+          <t>75,14; 86,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>88,61; 95,09</t>
+          <t>88,32; 95,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>84,29; 92,27</t>
+          <t>84,19; 92,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>83,77; 91,67</t>
+          <t>83,89; 91,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>84,19; 91,0</t>
+          <t>84,44; 90,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>79,23; 86,34</t>
+          <t>79,43; 86,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>81,6; 88,39</t>
+          <t>81,67; 88,31</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>83,64; 91,49</t>
+          <t>83,62; 91,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>74,71; 84,6</t>
+          <t>75,5; 85,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,16; 97,95</t>
+          <t>92,11; 98,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>83,83; 91,89</t>
+          <t>83,9; 92,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>82,72; 90,4</t>
+          <t>82,06; 90,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>94,27; 98,91</t>
+          <t>94,48; 98,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>85,14; 91,07</t>
+          <t>85,15; 90,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>80,37; 86,79</t>
+          <t>80,35; 86,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>94,5; 98,14</t>
+          <t>94,32; 97,93</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>82,75; 88,53</t>
+          <t>82,56; 88,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>62,11; 69,64</t>
+          <t>61,61; 69,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>77,5; 86,44</t>
+          <t>77,13; 86,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>90,01; 94,07</t>
+          <t>90,05; 94,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>69,67; 76,36</t>
+          <t>70,15; 76,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,3; 96,97</t>
+          <t>90,35; 97,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>87,36; 90,83</t>
+          <t>87,17; 90,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>67,11; 72,56</t>
+          <t>67,18; 72,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>85,59; 92,82</t>
+          <t>85,64; 93,11</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>71,01; 77,67</t>
+          <t>71,07; 77,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>86,81; 91,19</t>
+          <t>86,94; 91,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,38; 62,38</t>
+          <t>20,09; 62,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>76,35; 82,3</t>
+          <t>76,57; 82,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>92,8; 95,93</t>
+          <t>92,55; 95,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>67,14; 73,49</t>
+          <t>67,23; 73,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>74,66; 79,04</t>
+          <t>74,69; 79,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>90,62; 93,26</t>
+          <t>90,55; 93,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>35,99; 67,19</t>
+          <t>35,47; 66,71</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>80,77; 83,46</t>
+          <t>80,74; 83,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>80,48; 83,15</t>
+          <t>80,45; 83,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>59,33; 81,52</t>
+          <t>57,8; 81,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>86,55; 88,81</t>
+          <t>86,58; 88,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>86,23; 88,45</t>
+          <t>86,37; 88,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>80,26; 88,96</t>
+          <t>81,36; 88,93</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>84,18; 85,79</t>
+          <t>84,15; 85,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>83,79; 85,44</t>
+          <t>83,85; 85,63</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>72,12; 84,6</t>
+          <t>71,59; 84,8</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han medido los niveles de colesterol por prescripción médica</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>854</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>242994</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>203855</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>300452</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>256569</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>216062</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>284965</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>499562</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>419917</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>585416</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>229227; 254500</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>187004; 219489</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>289925; 306865</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>244154; 266469</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>200736; 230586</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>278645; 287713</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>480193; 515889</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>398311; 441214</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>574057; 592993</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>948</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>437653</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>437755</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>390202</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>487554</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>495605</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>434115</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>925207</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>933360</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>824317</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>422978; 451153</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>421852; 452767</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>359057; 416194</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>475004; 497688</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>483033; 504543</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>413212; 449282</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>904285; 942127</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>913444; 949500</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>781425; 858410</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>273406</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>285090</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>294888</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>301689</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>309500</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>339171</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>575096</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>594590</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>634059</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>259844; 285437</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>274452; 295046</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>281635; 303561</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>289248; 312163</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>299611; 318890</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>330105; 344743</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>553511; 590424</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>578636; 607045</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>618894; 643966</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>285372</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>335244</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>276343</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>327767</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>353234</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>379795</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>613139</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>688478</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>656138</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>267762; 300975</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>323837; 345710</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>247292; 291504</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>314514; 341282</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>338620; 362938</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>228781; 449871</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>589380; 633761</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>673217; 701879</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>465107; 727203</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>177141</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>163888</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>146412</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>200988</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>193520</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>183687</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>378129</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>357408</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>330099</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>163978; 186399</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>150837; 175154</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>134314; 155205</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>192992; 207942</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>184022; 202028</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>174713; 191012</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>363192; 390575</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>341413; 371232</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>316058; 341784</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>808</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>240563</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>211218</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>258554</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>246746</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>235466</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>249192</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>487309</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>446686</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>507746</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>229093; 250360</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>197867; 224412</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>248372; 264274</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>234129; 256724</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>222689; 245392</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>241825; 253256</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>470918; 500457</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>428658; 463407</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>495743; 514730</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1107</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1412</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>564183</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>428608</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>513588</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>637774</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>506464</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>791458</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1201957</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>935071</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1305045</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>542983; 581875</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>399841; 453040</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>480928; 539497</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>622075; 649664</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>482735; 528301</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>766530; 823399</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1175490; 1223506</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>898240; 970019</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1260542; 1370518</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>804</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1117</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1372</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1326</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>573588</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>688886</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>420807</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>647192</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>778854</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>505423</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1220780</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1467740</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>926230</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>548699; 597776</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>671082; 705110</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>186566; 584551</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>624449; 670531</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>762801; 789380</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>482136; 527610</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1185805; 1256362</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1445234; 1489326</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>583805; 1097990</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2632</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2887</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>2872</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>2888</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>4852</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>5472</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>5520</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>7739</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2794901</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>2754546</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>2601246</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>3106278</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>3088706</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>3167804</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>5901178</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>5843250</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>5769048</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2747559; 2838568</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2706648; 2797584</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1998847; 2821310</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>3063703; 3145389</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>3052190; 3128441</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>2976473; 3253470</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>5841085; 5960478</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>5783798; 5906573</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>5094912; 6034595</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>